--- a/travelingSalesMan/data/cqm_gr17_5sec.xlsx
+++ b/travelingSalesMan/data/cqm_gr17_5sec.xlsx
@@ -469,17 +469,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[4, 10, 16, 2, 14, 6, 7, 0, 5, 13, 12, 3, 11, 8, 15, 1, 9]</t>
+          <t>[12, 15, 11, 8, 5, 16, 0, 3, 2, 14, 10, 4, 9, 1, 13, 7, 6]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3058</v>
+        <v>2669</v>
       </c>
       <c r="E2" t="n">
-        <v>-973</v>
+        <v>-584</v>
       </c>
       <c r="F2" t="n">
-        <v>-13558.95302013423</v>
+        <v>-13564.1744966443</v>
       </c>
     </row>
     <row r="3">
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[4, 10, 16, 2, 14, 6, 7, 0, 5, 13, 12, 3, 11, 8, 15, 1, 9]</t>
+          <t>[12, 15, 11, 8, 5, 16, 0, 3, 2, 14, 10, 4, 9, 1, 13, 7, 6]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3058</v>
+        <v>2669</v>
       </c>
       <c r="E3" t="n">
-        <v>-973</v>
+        <v>-584</v>
       </c>
       <c r="F3" t="n">
-        <v>-13558.95302013418</v>
+        <v>-13564.1744966443</v>
       </c>
     </row>
     <row r="4">
@@ -513,17 +513,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[15, 3, 6, 12, 2, 0, 7, 14, 9, 4, 1, 10, 5, 16, 13, 11, 8]</t>
+          <t>[12, 15, 11, 8, 5, 16, 0, 3, 2, 14, 10, 4, 9, 1, 13, 7, 6]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3080</v>
+        <v>2669</v>
       </c>
       <c r="E4" t="n">
-        <v>-995</v>
+        <v>-584</v>
       </c>
       <c r="F4" t="n">
-        <v>-13558.6577181208</v>
+        <v>-13564.1744966443</v>
       </c>
     </row>
     <row r="5">
@@ -535,17 +535,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[15, 3, 6, 12, 2, 0, 7, 14, 9, 4, 1, 10, 5, 16, 13, 11, 8]</t>
+          <t>[12, 15, 11, 8, 5, 16, 0, 3, 2, 14, 10, 4, 9, 1, 13, 7, 6]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3080</v>
+        <v>2669</v>
       </c>
       <c r="E5" t="n">
-        <v>-995</v>
+        <v>-584</v>
       </c>
       <c r="F5" t="n">
-        <v>-13558.6577181208</v>
+        <v>-13564.1744966443</v>
       </c>
     </row>
     <row r="6">
@@ -557,17 +557,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[15, 3, 6, 12, 2, 0, 7, 14, 9, 4, 1, 10, 5, 16, 13, 11, 8]</t>
+          <t>[12, 15, 11, 8, 5, 16, 0, 3, 2, 14, 10, 4, 9, 1, 13, 7, 6]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3080</v>
+        <v>2669</v>
       </c>
       <c r="E6" t="n">
-        <v>-995</v>
+        <v>-584</v>
       </c>
       <c r="F6" t="n">
-        <v>-13558.6577181208</v>
+        <v>-13564.17449664428</v>
       </c>
     </row>
     <row r="7">
@@ -579,17 +579,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[9, 14, 12, 15, 11, 8, 7, 5, 16, 3, 2, 0, 13, 6, 10, 4, 1]</t>
+          <t>[8, 11, 15, 3, 16, 7, 5, 14, 4, 9, 13, 12, 6, 0, 2, 10, 1]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3100</v>
+        <v>2973</v>
       </c>
       <c r="E7" t="n">
-        <v>-1015</v>
+        <v>-888</v>
       </c>
       <c r="F7" t="n">
-        <v>-13558.38926174497</v>
+        <v>-13560.09395973154</v>
       </c>
     </row>
     <row r="8">
@@ -601,17 +601,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[10, 9, 3, 15, 11, 8, 4, 14, 5, 13, 12, 0, 16, 6, 7, 2, 1]</t>
+          <t>[8, 11, 15, 3, 16, 7, 5, 14, 4, 9, 13, 12, 6, 0, 2, 10, 1]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3104</v>
+        <v>2973</v>
       </c>
       <c r="E8" t="n">
-        <v>-1019</v>
+        <v>-888</v>
       </c>
       <c r="F8" t="n">
-        <v>-13558.3355704698</v>
+        <v>-13560.09395973154</v>
       </c>
     </row>
     <row r="9">
@@ -623,17 +623,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[10, 9, 3, 15, 11, 8, 4, 14, 5, 13, 6, 0, 16, 12, 7, 2, 1]</t>
+          <t>[8, 11, 15, 3, 16, 7, 5, 14, 4, 9, 13, 12, 6, 0, 2, 10, 1]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3184</v>
+        <v>2973</v>
       </c>
       <c r="E9" t="n">
-        <v>-1099</v>
+        <v>-888</v>
       </c>
       <c r="F9" t="n">
-        <v>-13557.26174496644</v>
+        <v>-13560.09395973154</v>
       </c>
     </row>
     <row r="10">
@@ -645,17 +645,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[8, 10, 4, 13, 3, 11, 15, 0, 7, 16, 6, 5, 14, 1, 9, 2, 12]</t>
+          <t>[8, 11, 15, 3, 16, 7, 5, 14, 4, 9, 13, 12, 6, 0, 2, 10, 1]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3217</v>
+        <v>2973</v>
       </c>
       <c r="E10" t="n">
-        <v>-1132</v>
+        <v>-888</v>
       </c>
       <c r="F10" t="n">
-        <v>-13556.81879194631</v>
+        <v>-13560.09395973151</v>
       </c>
     </row>
     <row r="11">
@@ -667,17 +667,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[9, 14, 12, 15, 8, 0, 7, 5, 16, 3, 11, 2, 13, 6, 10, 4, 1]</t>
+          <t>[1, 11, 8, 15, 0, 6, 4, 9, 7, 12, 3, 16, 5, 13, 14, 2, 10]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3249</v>
+        <v>3031</v>
       </c>
       <c r="E11" t="n">
-        <v>-1164</v>
+        <v>-946</v>
       </c>
       <c r="F11" t="n">
-        <v>-13556.38926174501</v>
+        <v>-13559.31543624161</v>
       </c>
     </row>
     <row r="12">
@@ -689,17 +689,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[9, 14, 12, 15, 8, 0, 7, 5, 16, 3, 11, 2, 13, 6, 10, 4, 1]</t>
+          <t>[1, 11, 8, 15, 0, 6, 4, 9, 7, 12, 3, 16, 5, 13, 14, 2, 10]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3249</v>
+        <v>3031</v>
       </c>
       <c r="E12" t="n">
-        <v>-1164</v>
+        <v>-946</v>
       </c>
       <c r="F12" t="n">
-        <v>-13556.38926174497</v>
+        <v>-13559.31543624161</v>
       </c>
     </row>
     <row r="13">
@@ -711,17 +711,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[9, 14, 12, 15, 8, 0, 7, 5, 16, 3, 11, 2, 13, 6, 10, 4, 1]</t>
+          <t>[1, 11, 8, 15, 0, 6, 4, 9, 7, 12, 3, 16, 5, 13, 14, 2, 10]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3249</v>
+        <v>3031</v>
       </c>
       <c r="E13" t="n">
-        <v>-1164</v>
+        <v>-946</v>
       </c>
       <c r="F13" t="n">
-        <v>-13556.38926174497</v>
+        <v>-13559.31543624161</v>
       </c>
     </row>
     <row r="14">
@@ -733,17 +733,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[9, 14, 12, 15, 8, 0, 7, 5, 16, 3, 11, 2, 13, 6, 10, 4, 1]</t>
+          <t>[1, 11, 8, 15, 0, 6, 4, 9, 7, 12, 3, 16, 5, 13, 14, 2, 10]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3249</v>
+        <v>3031</v>
       </c>
       <c r="E14" t="n">
-        <v>-1164</v>
+        <v>-946</v>
       </c>
       <c r="F14" t="n">
-        <v>-13556.38926174497</v>
+        <v>-13559.3154362416</v>
       </c>
     </row>
     <row r="15">
@@ -755,17 +755,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[8, 10, 4, 13, 3, 11, 15, 0, 7, 12, 6, 5, 14, 1, 9, 2, 16]</t>
+          <t>[4, 10, 2, 14, 5, 1, 6, 12, 7, 0, 15, 11, 8, 16, 3, 13, 9]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3265</v>
+        <v>3188</v>
       </c>
       <c r="E15" t="n">
-        <v>-1180</v>
+        <v>-1103</v>
       </c>
       <c r="F15" t="n">
-        <v>-13556.17449664429</v>
+        <v>-13557.20805369127</v>
       </c>
     </row>
     <row r="16">
@@ -777,17 +777,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[8, 10, 4, 13, 3, 11, 15, 0, 7, 12, 6, 5, 14, 1, 9, 2, 16]</t>
+          <t>[4, 10, 2, 14, 5, 1, 6, 12, 7, 0, 15, 11, 8, 16, 3, 13, 9]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3265</v>
+        <v>3188</v>
       </c>
       <c r="E16" t="n">
-        <v>-1180</v>
+        <v>-1103</v>
       </c>
       <c r="F16" t="n">
-        <v>-13556.17449664429</v>
+        <v>-13557.20805369127</v>
       </c>
     </row>
     <row r="17">
@@ -799,17 +799,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[8, 10, 4, 13, 3, 11, 15, 0, 7, 12, 6, 5, 14, 1, 9, 2, 16]</t>
+          <t>[4, 10, 2, 14, 5, 1, 6, 12, 7, 0, 15, 11, 8, 16, 3, 13, 9]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3265</v>
+        <v>3188</v>
       </c>
       <c r="E17" t="n">
-        <v>-1180</v>
+        <v>-1103</v>
       </c>
       <c r="F17" t="n">
-        <v>-13556.17449664429</v>
+        <v>-13557.20805369124</v>
       </c>
     </row>
     <row r="18">
@@ -821,17 +821,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[8, 10, 4, 13, 3, 11, 15, 0, 7, 12, 6, 5, 14, 1, 9, 2, 16]</t>
+          <t>[8, 13, 16, 14, 2, 4, 10, 5, 0, 6, 3, 7, 12, 9, 1, 15, 11]</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3265</v>
+        <v>3271</v>
       </c>
       <c r="E18" t="n">
-        <v>-1180</v>
+        <v>-1186</v>
       </c>
       <c r="F18" t="n">
-        <v>-13556.17449664426</v>
+        <v>-13556.09395973158</v>
       </c>
     </row>
     <row r="19">
@@ -843,17 +843,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[14, 7, 3, 15, 6, 0, 13, 2, 4, 1, 8, 11, 16, 12, 5, 10, 9]</t>
+          <t>[8, 13, 16, 14, 2, 4, 10, 5, 0, 6, 3, 7, 12, 9, 1, 15, 11]</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3291</v>
+        <v>3271</v>
       </c>
       <c r="E19" t="n">
-        <v>-1206</v>
+        <v>-1186</v>
       </c>
       <c r="F19" t="n">
-        <v>-13555.8255033557</v>
+        <v>-13556.09395973154</v>
       </c>
     </row>
     <row r="20">
@@ -865,17 +865,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[14, 7, 3, 15, 6, 0, 13, 2, 4, 1, 8, 11, 16, 12, 5, 10, 9]</t>
+          <t>[8, 13, 16, 14, 2, 4, 10, 5, 0, 6, 3, 7, 12, 9, 1, 15, 11]</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3291</v>
+        <v>3271</v>
       </c>
       <c r="E20" t="n">
-        <v>-1206</v>
+        <v>-1186</v>
       </c>
       <c r="F20" t="n">
-        <v>-13555.8255033557</v>
+        <v>-13556.09395973154</v>
       </c>
     </row>
     <row r="21">
@@ -887,17 +887,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[14, 7, 3, 15, 6, 0, 13, 2, 4, 1, 8, 11, 16, 12, 5, 10, 9]</t>
+          <t>[8, 13, 16, 14, 2, 4, 10, 5, 0, 6, 3, 7, 12, 9, 1, 15, 11]</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3291</v>
+        <v>3271</v>
       </c>
       <c r="E21" t="n">
-        <v>-1206</v>
+        <v>-1186</v>
       </c>
       <c r="F21" t="n">
-        <v>-13555.82550335568</v>
+        <v>-13556.09395973154</v>
       </c>
     </row>
     <row r="22">
@@ -909,17 +909,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[10, 9, 3, 15, 11, 8, 4, 14, 5, 13, 2, 0, 16, 12, 7, 6, 1]</t>
+          <t>[15, 11, 8, 13, 0, 3, 10, 2, 12, 5, 6, 16, 7, 14, 4, 9, 1]</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3342</v>
+        <v>3310</v>
       </c>
       <c r="E22" t="n">
-        <v>-1257</v>
+        <v>-1225</v>
       </c>
       <c r="F22" t="n">
-        <v>-13555.14093959733</v>
+        <v>-13555.57046979867</v>
       </c>
     </row>
     <row r="23">
@@ -931,17 +931,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[10, 9, 3, 15, 11, 8, 4, 14, 5, 13, 2, 0, 16, 12, 7, 6, 1]</t>
+          <t>[15, 11, 8, 13, 0, 3, 10, 2, 12, 5, 6, 16, 7, 14, 4, 9, 1]</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3342</v>
+        <v>3310</v>
       </c>
       <c r="E23" t="n">
-        <v>-1257</v>
+        <v>-1225</v>
       </c>
       <c r="F23" t="n">
-        <v>-13555.14093959732</v>
+        <v>-13555.57046979866</v>
       </c>
     </row>
     <row r="24">
@@ -953,17 +953,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[2, 9, 10, 12, 11, 8, 6, 16, 13, 0, 5, 7, 3, 15, 1, 4, 14]</t>
+          <t>[15, 11, 8, 13, 0, 3, 10, 2, 12, 5, 6, 16, 7, 14, 4, 9, 1]</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3370</v>
+        <v>3310</v>
       </c>
       <c r="E24" t="n">
-        <v>-1285</v>
+        <v>-1225</v>
       </c>
       <c r="F24" t="n">
-        <v>-13554.7651006711</v>
+        <v>-13555.57046979866</v>
       </c>
     </row>
     <row r="25">
@@ -975,17 +975,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[7, 16, 4, 11, 15, 14, 2, 1, 9, 10, 13, 6, 8, 3, 5, 12, 0]</t>
+          <t>[10, 6, 3, 16, 2, 7, 5, 14, 9, 1, 12, 0, 15, 8, 11, 13, 4]</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3428</v>
+        <v>3310</v>
       </c>
       <c r="E25" t="n">
-        <v>-1343</v>
+        <v>-1225</v>
       </c>
       <c r="F25" t="n">
-        <v>-13553.98657718122</v>
+        <v>-13555.57046979864</v>
       </c>
     </row>
     <row r="26">
@@ -997,17 +997,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[1, 11, 15, 8, 12, 6, 0, 7, 16, 14, 9, 13, 3, 10, 5, 2, 4]</t>
+          <t>[1, 9, 10, 12, 3, 8, 0, 6, 11, 15, 7, 16, 2, 4, 14, 5, 13]</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3434</v>
+        <v>3314</v>
       </c>
       <c r="E26" t="n">
-        <v>-1349</v>
+        <v>-1229</v>
       </c>
       <c r="F26" t="n">
-        <v>-13553.90604026849</v>
+        <v>-13555.51677852352</v>
       </c>
     </row>
     <row r="27">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[0, 12, 6, 5, 14, 13, 7, 11, 4, 10, 9, 1, 8, 2, 16, 15, 3]</t>
+          <t>[4, 10, 0, 3, 13, 9, 1, 14, 2, 12, 16, 15, 8, 11, 7, 6, 5]</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3440</v>
+        <v>3337</v>
       </c>
       <c r="E27" t="n">
-        <v>-1355</v>
+        <v>-1252</v>
       </c>
       <c r="F27" t="n">
-        <v>-13553.8255033557</v>
+        <v>-13555.20805369125</v>
       </c>
     </row>
     <row r="28">
@@ -1041,17 +1041,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[13, 10, 4, 7, 14, 12, 0, 3, 6, 15, 5, 16, 11, 8, 1, 9, 2]</t>
+          <t>[8, 6, 16, 5, 14, 10, 9, 0, 13, 7, 12, 2, 4, 1, 3, 15, 11]</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3466</v>
+        <v>3342</v>
       </c>
       <c r="E28" t="n">
-        <v>-1381</v>
+        <v>-1257</v>
       </c>
       <c r="F28" t="n">
-        <v>-13553.47651006714</v>
+        <v>-13555.14093959728</v>
       </c>
     </row>
     <row r="29">
@@ -1063,17 +1063,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[14, 2, 9, 4, 13, 6, 11, 3, 0, 16, 15, 8, 1, 10, 5, 7, 12]</t>
+          <t>[9, 1, 14, 4, 2, 10, 8, 11, 0, 7, 13, 16, 12, 3, 15, 6, 5]</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3540</v>
+        <v>3370</v>
       </c>
       <c r="E29" t="n">
-        <v>-1455</v>
+        <v>-1285</v>
       </c>
       <c r="F29" t="n">
-        <v>-13552.48322147652</v>
+        <v>-13554.76510067114</v>
       </c>
     </row>
     <row r="30">
@@ -1085,17 +1085,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[6, 14, 2, 4, 11, 15, 12, 8, 5, 13, 7, 16, 0, 3, 9, 1, 10]</t>
+          <t>[7, 4, 10, 9, 2, 16, 14, 5, 0, 6, 15, 11, 8, 12, 3, 13, 1]</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3549</v>
+        <v>3412</v>
       </c>
       <c r="E30" t="n">
-        <v>-1464</v>
+        <v>-1327</v>
       </c>
       <c r="F30" t="n">
-        <v>-13552.36241610739</v>
+        <v>-13554.20134228189</v>
       </c>
     </row>
     <row r="31">
@@ -1107,17 +1107,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[6, 14, 2, 4, 11, 15, 12, 8, 5, 13, 7, 16, 0, 3, 9, 1, 10]</t>
+          <t>[13, 2, 7, 0, 6, 9, 14, 10, 8, 15, 11, 5, 16, 3, 12, 1, 4]</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3549</v>
+        <v>3489</v>
       </c>
       <c r="E31" t="n">
-        <v>-1464</v>
+        <v>-1404</v>
       </c>
       <c r="F31" t="n">
-        <v>-13552.36241610738</v>
+        <v>-13553.1677852349</v>
       </c>
     </row>
     <row r="32">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[6, 14, 2, 4, 11, 15, 12, 8, 5, 13, 7, 16, 0, 3, 9, 1, 10]</t>
+          <t>[13, 2, 7, 0, 6, 9, 14, 10, 8, 15, 11, 5, 16, 3, 12, 1, 4]</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3549</v>
+        <v>3489</v>
       </c>
       <c r="E32" t="n">
-        <v>-1464</v>
+        <v>-1404</v>
       </c>
       <c r="F32" t="n">
-        <v>-13552.36241610738</v>
+        <v>-13553.1677852349</v>
       </c>
     </row>
     <row r="33">
@@ -1151,17 +1151,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[4, 9, 6, 15, 3, 5, 14, 7, 12, 2, 10, 13, 16, 0, 11, 8, 1]</t>
+          <t>[13, 2, 7, 0, 6, 9, 14, 10, 8, 15, 11, 5, 16, 3, 12, 1, 4]</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3588</v>
+        <v>3489</v>
       </c>
       <c r="E33" t="n">
-        <v>-1503</v>
+        <v>-1404</v>
       </c>
       <c r="F33" t="n">
-        <v>-13551.83892617446</v>
+        <v>-13553.16778523485</v>
       </c>
     </row>
     <row r="34">
@@ -1173,17 +1173,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[1, 15, 0, 6, 7, 12, 5, 11, 8, 10, 3, 14, 2, 16, 13, 4, 9]</t>
+          <t>[9, 10, 1, 2, 16, 6, 12, 14, 5, 7, 4, 8, 3, 15, 11, 0, 13]</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3609</v>
+        <v>3490</v>
       </c>
       <c r="E34" t="n">
-        <v>-1524</v>
+        <v>-1405</v>
       </c>
       <c r="F34" t="n">
-        <v>-13551.55704697987</v>
+        <v>-13553.15436241615</v>
       </c>
     </row>
     <row r="35">
@@ -1195,17 +1195,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[15, 0, 1, 10, 13, 3, 5, 9, 4, 14, 2, 6, 7, 8, 11, 12, 16]</t>
+          <t>[9, 1, 3, 15, 2, 6, 0, 16, 7, 8, 11, 5, 14, 13, 12, 4, 10]</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3669</v>
+        <v>3651</v>
       </c>
       <c r="E35" t="n">
-        <v>-1584</v>
+        <v>-1566</v>
       </c>
       <c r="F35" t="n">
-        <v>-13550.75167785237</v>
+        <v>-13550.99328859059</v>
       </c>
     </row>
     <row r="36">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[14, 12, 13, 7, 4, 10, 8, 16, 1, 9, 3, 11, 15, 6, 0, 2, 5]</t>
+          <t>[12, 3, 6, 5, 10, 15, 11, 2, 9, 14, 1, 4, 13, 7, 0, 16, 8]</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3997</v>
+        <v>3691</v>
       </c>
       <c r="E36" t="n">
-        <v>-1912</v>
+        <v>-1606</v>
       </c>
       <c r="F36" t="n">
-        <v>-13546.34899328859</v>
+        <v>-13550.45637583893</v>
       </c>
     </row>
     <row r="37">
@@ -1239,17 +1239,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[11, 7, 13, 6, 5, 1, 10, 0, 3, 9, 16, 4, 14, 2, 12, 8, 15]</t>
+          <t>[13, 0, 10, 2, 6, 8, 11, 15, 12, 7, 9, 3, 14, 1, 4, 16, 5]</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4003</v>
+        <v>3912</v>
       </c>
       <c r="E37" t="n">
-        <v>-1918</v>
+        <v>-1827</v>
       </c>
       <c r="F37" t="n">
-        <v>-13546.26845637584</v>
+        <v>-13547.4899328859</v>
       </c>
     </row>
     <row r="38">
@@ -1261,17 +1261,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[11, 7, 13, 6, 5, 1, 10, 0, 3, 9, 16, 4, 14, 2, 12, 8, 15]</t>
+          <t>[6, 7, 12, 9, 10, 13, 5, 2, 1, 3, 8, 0, 11, 15, 16, 4, 14]</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4003</v>
+        <v>4096</v>
       </c>
       <c r="E38" t="n">
-        <v>-1918</v>
+        <v>-2011</v>
       </c>
       <c r="F38" t="n">
-        <v>-13546.26845637584</v>
+        <v>-13545.02013422819</v>
       </c>
     </row>
     <row r="39">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[11, 7, 13, 6, 5, 1, 10, 0, 3, 9, 16, 4, 14, 2, 12, 8, 15]</t>
+          <t>[2, 9, 4, 8, 11, 6, 1, 14, 12, 13, 3, 10, 0, 15, 16, 5, 7]</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4003</v>
+        <v>4191</v>
       </c>
       <c r="E39" t="n">
-        <v>-1918</v>
+        <v>-2106</v>
       </c>
       <c r="F39" t="n">
-        <v>-13546.26845637583</v>
+        <v>-13543.74496644295</v>
       </c>
     </row>
     <row r="40">
@@ -1305,17 +1305,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[11, 3, 6, 12, 2, 0, 7, 14, 9, 4, 13, 10, 5, 15, 1, 16, 8]</t>
+          <t>[8, 0, 14, 12, 11, 1, 10, 5, 16, 6, 3, 7, 13, 9, 4, 15, 2]</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4140</v>
+        <v>4369</v>
       </c>
       <c r="E40" t="n">
-        <v>-2055</v>
+        <v>-2284</v>
       </c>
       <c r="F40" t="n">
-        <v>-13544.42953020134</v>
+        <v>-13541.35570469801</v>
       </c>
     </row>
     <row r="41">
@@ -1327,17 +1327,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[14, 10, 13, 9, 5, 7, 8, 3, 1, 11, 12, 16, 15, 6, 0, 2, 4]</t>
+          <t>[2, 7, 12, 9, 16, 13, 5, 15, 1, 10, 8, 0, 3, 11, 6, 4, 14]</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4459</v>
+        <v>4485</v>
       </c>
       <c r="E41" t="n">
-        <v>-2374</v>
+        <v>-2400</v>
       </c>
       <c r="F41" t="n">
-        <v>-13540.1476510067</v>
+        <v>-13539.79865771813</v>
       </c>
     </row>
     <row r="42">
@@ -1349,17 +1349,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[8, 2, 3, 1, 16, 5, 10, 9, 6, 7, 4, 14, 13, 11, 0, 12, 15]</t>
+          <t>[10, 1, 8, 7, 0, 4, 16, 2, 13, 3, 5, 11, 6, 15, 12, 9, 14]</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4490</v>
+        <v>4513</v>
       </c>
       <c r="E42" t="n">
-        <v>-2405</v>
+        <v>-2428</v>
       </c>
       <c r="F42" t="n">
-        <v>-13539.73154362413</v>
+        <v>-13539.42281879195</v>
       </c>
     </row>
     <row r="43">
@@ -1371,17 +1371,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[10, 11, 9, 6, 0, 16, 7, 14, 15, 12, 4, 1, 2, 13, 5, 8, 3]</t>
+          <t>[1, 13, 8, 7, 0, 6, 16, 11, 14, 9, 3, 12, 5, 4, 15, 2, 10]</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4536</v>
+        <v>4518</v>
       </c>
       <c r="E43" t="n">
-        <v>-2451</v>
+        <v>-2433</v>
       </c>
       <c r="F43" t="n">
-        <v>-13539.11409395966</v>
+        <v>-13539.35570469796</v>
       </c>
     </row>
     <row r="44">
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[4, 5, 10, 16, 3, 2, 7, 14, 1, 13, 11, 6, 0, 15, 8, 9, 12]</t>
+          <t>[5, 16, 15, 11, 14, 1, 0, 6, 10, 3, 4, 9, 13, 12, 8, 2, 7]</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4726</v>
+        <v>4534</v>
       </c>
       <c r="E44" t="n">
-        <v>-2641</v>
+        <v>-2449</v>
       </c>
       <c r="F44" t="n">
-        <v>-13536.56375838926</v>
+        <v>-13539.14093959731</v>
       </c>
     </row>
     <row r="45">
@@ -1415,17 +1415,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[5, 2, 4, 3, 10, 8, 13, 12, 9, 1, 11, 7, 16, 15, 14, 0, 6]</t>
+          <t>[4, 10, 3, 9, 8, 5, 13, 14, 7, 2, 16, 1, 15, 6, 12, 0, 11]</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4757</v>
+        <v>4700</v>
       </c>
       <c r="E45" t="n">
-        <v>-2672</v>
+        <v>-2615</v>
       </c>
       <c r="F45" t="n">
-        <v>-13536.14765100672</v>
+        <v>-13536.91275167788</v>
       </c>
     </row>
     <row r="46">
@@ -1437,17 +1437,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[15, 12, 2, 7, 4, 10, 0, 16, 14, 9, 3, 11, 6, 8, 13, 1, 5]</t>
+          <t>[8, 15, 6, 2, 1, 5, 9, 16, 4, 12, 10, 14, 0, 11, 3, 7, 13]</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4760</v>
+        <v>4799</v>
       </c>
       <c r="E46" t="n">
-        <v>-2675</v>
+        <v>-2714</v>
       </c>
       <c r="F46" t="n">
-        <v>-13536.10738255032</v>
+        <v>-13535.58389261741</v>
       </c>
     </row>
     <row r="47">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[5, 7, 9, 10, 0, 2, 8, 13, 16, 14, 4, 3, 15, 6, 11, 12, 1]</t>
+          <t>[6, 1, 8, 7, 10, 0, 4, 2, 13, 3, 5, 9, 11, 15, 16, 12, 14]</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4904</v>
+        <v>4831</v>
       </c>
       <c r="E47" t="n">
-        <v>-2819</v>
+        <v>-2746</v>
       </c>
       <c r="F47" t="n">
-        <v>-13534.17449664429</v>
+        <v>-13535.15436241611</v>
       </c>
     </row>
     <row r="48">
@@ -1481,17 +1481,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[9, 10, 6, 0, 15, 1, 5, 14, 11, 13, 4, 12, 7, 3, 2, 8, 16]</t>
+          <t>[1, 5, 10, 9, 14, 3, 13, 8, 2, 16, 12, 15, 0, 4, 6, 11, 7]</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4955</v>
+        <v>4845</v>
       </c>
       <c r="E48" t="n">
-        <v>-2870</v>
+        <v>-2760</v>
       </c>
       <c r="F48" t="n">
-        <v>-13533.48993288591</v>
+        <v>-13534.96644295301</v>
       </c>
     </row>
     <row r="49">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[11, 2, 3, 12, 14, 5, 13, 7, 4, 8, 15, 0, 1, 16, 10, 6, 9]</t>
+          <t>[16, 2, 10, 12, 14, 8, 6, 15, 4, 9, 5, 3, 1, 13, 0, 11, 7]</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5028</v>
+        <v>4904</v>
       </c>
       <c r="E49" t="n">
-        <v>-2943</v>
+        <v>-2819</v>
       </c>
       <c r="F49" t="n">
-        <v>-13532.51006711413</v>
+        <v>-13534.17449664426</v>
       </c>
     </row>
     <row r="50">
@@ -1525,17 +1525,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[1, 6, 8, 9, 0, 13, 15, 7, 4, 12, 5, 14, 2, 3, 16, 11, 10]</t>
+          <t>[12, 2, 3, 13, 5, 4, 0, 1, 6, 9, 10, 11, 14, 16, 7, 15, 8]</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5034</v>
+        <v>5000</v>
       </c>
       <c r="E50" t="n">
-        <v>-2949</v>
+        <v>-2915</v>
       </c>
       <c r="F50" t="n">
-        <v>-13532.42953020139</v>
+        <v>-13532.88590604034</v>
       </c>
     </row>
     <row r="51">
@@ -1547,17 +1547,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[15, 13, 5, 1, 16, 6, 14, 2, 0, 12, 4, 11, 7, 10, 8, 9, 3]</t>
+          <t>[3, 2, 8, 6, 9, 4, 5, 14, 0, 13, 10, 16, 7, 11, 12, 15, 1]</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5044</v>
+        <v>5062</v>
       </c>
       <c r="E51" t="n">
-        <v>-2959</v>
+        <v>-2977</v>
       </c>
       <c r="F51" t="n">
-        <v>-13532.2953020134</v>
+        <v>-13532.05369127516</v>
       </c>
     </row>
     <row r="52">
@@ -1569,17 +1569,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[15, 9, 6, 7, 0, 14, 16, 12, 13, 1, 5, 2, 8, 10, 3, 11, 4]</t>
+          <t>[10, 1, 2, 15, 0, 4, 16, 7, 5, 8, 14, 11, 6, 13, 12, 9, 3]</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>5216</v>
+        <v>5095</v>
       </c>
       <c r="E52" t="n">
-        <v>-3131</v>
+        <v>-3010</v>
       </c>
       <c r="F52" t="n">
-        <v>-13529.98657718119</v>
+        <v>-13531.61073825512</v>
       </c>
     </row>
     <row r="53">
@@ -1591,17 +1591,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[0, 13, 6, 1, 7, 11, 4, 15, 8, 2, 16, 12, 9, 3, 14, 5, 10]</t>
+          <t>[8, 2, 6, 5, 1, 0, 4, 10, 3, 12, 11, 14, 13, 7, 15, 9, 16]</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>5335</v>
+        <v>5103</v>
       </c>
       <c r="E53" t="n">
-        <v>-3250</v>
+        <v>-3018</v>
       </c>
       <c r="F53" t="n">
-        <v>-13528.38926174495</v>
+        <v>-13531.50335570472</v>
       </c>
     </row>
     <row r="54">
@@ -1613,17 +1613,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[4, 6, 10, 15, 13, 1, 5, 8, 16, 7, 2, 9, 3, 12, 14, 11, 0]</t>
+          <t>[8, 0, 11, 16, 14, 13, 1, 6, 9, 3, 2, 7, 15, 12, 4, 5, 10]</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5406</v>
+        <v>5245</v>
       </c>
       <c r="E54" t="n">
-        <v>-3321</v>
+        <v>-3160</v>
       </c>
       <c r="F54" t="n">
-        <v>-13527.43624161073</v>
+        <v>-13529.59731543623</v>
       </c>
     </row>
   </sheetData>
